--- a/biology/Médecine/Les_Blouses_blanches_(film,_1961)/Les_Blouses_blanches_(film,_1961).xlsx
+++ b/biology/Médecine/Les_Blouses_blanches_(film,_1961)/Les_Blouses_blanches_(film,_1961).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Blouses blanches (titre original : The Young Doctors) est un film américain réalisé par Phil Karlson, sorti en 1961.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Au sein d'un hôpital, le jeune docteur David Coleman venant d'y être embauché s'oppose à son chef de service, le vieillissant docteur Joseph Pearson qui voit en lui un rival. En particulier, leurs diagnostics diffèrent sur le cas de l'infirmière Cathy Hunt, atteinte d'une tumeur au genou, dont Coleman tombe amoureux...
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Les Blouses blanches
 Titre original : The Young Doctors
@@ -589,7 +605,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Fredric March : Dr Joseph Pearson
 Ben Gazzara : Dr David Coleman
